--- a/output/Clustering/fish/clust_PCs_validity_measures_fish_tot_coda_rob_k2_ward.xlsx
+++ b/output/Clustering/fish/clust_PCs_validity_measures_fish_tot_coda_rob_k2_ward.xlsx
@@ -413,19 +413,19 @@
         <v>27</v>
       </c>
       <c r="D2" t="n">
-        <v>0.446</v>
+        <v>0.618</v>
       </c>
       <c r="E2" t="n">
-        <v>1.329</v>
+        <v>1.349</v>
       </c>
       <c r="F2" t="n">
-        <v>1.304</v>
+        <v>1.298</v>
       </c>
       <c r="G2" t="n">
-        <v>0.274</v>
+        <v>0.28</v>
       </c>
       <c r="H2" t="n">
-        <v>1.905</v>
+        <v>1.949</v>
       </c>
       <c r="I2" t="n">
         <v>7</v>
@@ -442,19 +442,19 @@
         <v>7</v>
       </c>
       <c r="D3" t="n">
-        <v>0.446</v>
+        <v>0.618</v>
       </c>
       <c r="E3" t="n">
-        <v>1.077</v>
+        <v>1.141</v>
       </c>
       <c r="F3" t="n">
-        <v>1.208</v>
+        <v>1.328</v>
       </c>
       <c r="G3" t="n">
-        <v>0.429</v>
+        <v>0.409</v>
       </c>
       <c r="H3" t="n">
-        <v>1.905</v>
+        <v>1.949</v>
       </c>
       <c r="I3" t="n">
         <v>7</v>
